--- a/data_created/IER-medicare-state-average.xlsx
+++ b/data_created/IER-medicare-state-average.xlsx
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>4.3068799116085</v>
+        <v>3.8621944130864</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2.19800146236982</v>
+        <v>2.14537822100951</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>3.67211577236866</v>
+        <v>3.46552154686375</v>
       </c>
     </row>
     <row r="5">
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3.61903028362618</v>
+        <v>3.36913884643038</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>4.56169520132543</v>
+        <v>4.32730732243039</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>2.55318863520244</v>
+        <v>2.47780422113571</v>
       </c>
     </row>
     <row r="8">
@@ -563,7 +563,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>3.43310133297891</v>
+        <v>3.16733137281397</v>
       </c>
     </row>
     <row r="9">
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>3.12636186342637</v>
+        <v>2.82216719124913</v>
       </c>
     </row>
     <row r="10">
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>6.70455175335075</v>
+        <v>6.66388306797426</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>4.62731363142304</v>
+        <v>4.1536637478913</v>
       </c>
     </row>
     <row r="12">
@@ -595,7 +595,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>4.19018131025189</v>
+        <v>3.91530481763937</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>3.24242345171674</v>
+        <v>3.13792030753114</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>2.29695333399655</v>
+        <v>2.15276961793347</v>
       </c>
     </row>
     <row r="15">
@@ -619,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>3.84648356120286</v>
+        <v>3.60897591672781</v>
       </c>
     </row>
     <row r="16">
@@ -627,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>3.31042135693839</v>
+        <v>3.01202330711012</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>2.39421080310905</v>
+        <v>2.20115771408337</v>
       </c>
     </row>
     <row r="18">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>2.82584672128546</v>
+        <v>2.60225028486127</v>
       </c>
     </row>
     <row r="19">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>3.47151774176274</v>
+        <v>3.0954876204267</v>
       </c>
     </row>
     <row r="20">
@@ -659,7 +659,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>4.84156200359688</v>
+        <v>4.47119137181981</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>2.28094540134176</v>
+        <v>2.118383933431</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>3.93509986348836</v>
+        <v>3.64988170549473</v>
       </c>
     </row>
     <row r="23">
@@ -683,7 +683,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>2.98847228839647</v>
+        <v>2.76579225879593</v>
       </c>
     </row>
     <row r="24">
@@ -691,7 +691,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>3.57249753500335</v>
+        <v>3.17545574432584</v>
       </c>
     </row>
     <row r="25">
@@ -699,7 +699,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>2.30192673897798</v>
+        <v>2.17927627423665</v>
       </c>
     </row>
     <row r="26">
@@ -707,7 +707,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>4.65755973208925</v>
+        <v>4.34787976523288</v>
       </c>
     </row>
     <row r="27">
@@ -715,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>3.3060545800646</v>
+        <v>3.00700347108456</v>
       </c>
     </row>
     <row r="28">
@@ -723,7 +723,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>2.11159597564701</v>
+        <v>2.02956718936119</v>
       </c>
     </row>
     <row r="29">
@@ -731,7 +731,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>2.48100205277742</v>
+        <v>2.31385640513292</v>
       </c>
     </row>
     <row r="30">
@@ -739,7 +739,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>3.96834897260497</v>
+        <v>3.77198592786264</v>
       </c>
     </row>
     <row r="31">
@@ -747,7 +747,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>2.02279205786067</v>
+        <v>1.88942284605715</v>
       </c>
     </row>
     <row r="32">
@@ -755,7 +755,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="n">
-        <v>3.99605978911239</v>
+        <v>3.65254531066039</v>
       </c>
     </row>
     <row r="33">
@@ -763,7 +763,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="n">
-        <v>4.23058499235875</v>
+        <v>4.15097670245584</v>
       </c>
     </row>
     <row r="34">
@@ -771,7 +771,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="n">
-        <v>4.43208880998983</v>
+        <v>4.09636956657109</v>
       </c>
     </row>
     <row r="35">
@@ -779,7 +779,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>3.90994836806862</v>
+        <v>3.61222594787496</v>
       </c>
     </row>
     <row r="36">
@@ -787,7 +787,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>2.50189996089295</v>
+        <v>2.28990438062146</v>
       </c>
     </row>
     <row r="37">
@@ -795,7 +795,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>3.49214995338069</v>
+        <v>3.20590948129276</v>
       </c>
     </row>
     <row r="38">
@@ -803,7 +803,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="n">
-        <v>3.64296687451513</v>
+        <v>3.30093086307198</v>
       </c>
     </row>
     <row r="39">
@@ -811,7 +811,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>2.68102026058702</v>
+        <v>2.59342364525698</v>
       </c>
     </row>
     <row r="40">
@@ -819,7 +819,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>3.16924404515573</v>
+        <v>2.87179293394553</v>
       </c>
     </row>
     <row r="41">
@@ -827,7 +827,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="n">
-        <v>3.6066268533336</v>
+        <v>3.33464271581237</v>
       </c>
     </row>
     <row r="42">
@@ -835,7 +835,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>3.70497261701622</v>
+        <v>3.45315157910072</v>
       </c>
     </row>
     <row r="43">
@@ -843,7 +843,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>2.41145075027804</v>
+        <v>2.2327698313403</v>
       </c>
     </row>
     <row r="44">
@@ -851,7 +851,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="n">
-        <v>3.52187653865484</v>
+        <v>3.22036310675211</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="n">
-        <v>4.63769844331582</v>
+        <v>4.29670849863915</v>
       </c>
     </row>
     <row r="46">
@@ -867,7 +867,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>2.25289412249581</v>
+        <v>2.1038507987104</v>
       </c>
     </row>
     <row r="47">
@@ -875,7 +875,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>1.9633568612539</v>
+        <v>1.86306300266008</v>
       </c>
     </row>
     <row r="48">
@@ -883,7 +883,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>3.20255791800346</v>
+        <v>2.9711141596086</v>
       </c>
     </row>
     <row r="49">
@@ -891,7 +891,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>2.44029335514491</v>
+        <v>2.3353454235078</v>
       </c>
     </row>
     <row r="50">
@@ -899,7 +899,7 @@
         <v>50</v>
       </c>
       <c r="B50" t="n">
-        <v>3.21817899396499</v>
+        <v>2.79423210115508</v>
       </c>
     </row>
     <row r="51">
@@ -907,7 +907,7 @@
         <v>51</v>
       </c>
       <c r="B51" t="n">
-        <v>2.5702888378084</v>
+        <v>2.3762366637113</v>
       </c>
     </row>
     <row r="52">
@@ -915,7 +915,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1.97112180971541</v>
+        <v>1.89577685455957</v>
       </c>
     </row>
   </sheetData>
